--- a/biology/Zoologie/Acanthopterygii_(classification_phylogénétique)/Acanthopterygii_(classification_phylogénétique).xlsx
+++ b/biology/Zoologie/Acanthopterygii_(classification_phylogénétique)/Acanthopterygii_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acanthopterygii_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Acanthopterygii_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Acanthopterygii (Acanthoptérygiens), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acanthopterygii_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Acanthopterygii_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -1398,7 +1412,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acanthopterygii_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Acanthopterygii_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1416,7 +1430,9 @@
           <t>Débat scientifique relatif à la phylogénie des Acanthopterygii</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les analyses moléculaires les plus récentes ont confirmé non seulement la forte polyphylie des Perciformes, mais aussi la nécessité de recomposer l'ensemble des Acantomorphes, et notamment des Acanthoptérygiens. Plusieurs ordres ont ainsi disparu, des groupements nouveaux apparaissent. De nombreuses familles de Perciformes attendent encore leur placement.
 Nous avons suivi ici, pour les niveaux supérieurs de la classification, la synthèse de Lecointre et al. 2010.
@@ -1430,7 +1446,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acanthopterygii_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Acanthopterygii_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1450,13 +1466,85 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Guillaume Lecointre, Cyril Gallut, Bruno Chanet et Agnès Dettaï : « Du rififi chez les poissons », in Pour la Science n° 390, 2010, pp. 57-63
-Autres sources bibliographiques
-Sources internet
-Fish Index
-Liens internes
-Arbre phylogénétique
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Guillaume Lecointre, Cyril Gallut, Bruno Chanet et Agnès Dettaï : « Du rififi chez les poissons », in Pour la Science n° 390, 2010, pp. 57-63</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acanthopterygii_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthopterygii_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fish Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acanthopterygii_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthopterygii_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
 Opisthokonta (classification phylogénétique)
